--- a/Schablonen/ThoraxIntensivlunge.xlsx
+++ b/Schablonen/ThoraxIntensivlunge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amar\Git\radiospeech\Schablonen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF131900-712E-4138-9C56-FA78CACE322F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808B9AC5-A1ED-426F-844A-AF8BEF662733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61320" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{E9688302-5921-49C1-BE4B-315E9EEA5948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E9688302-5921-49C1-BE4B-315E9EEA5948}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="348">
   <si>
     <t>Gliederung</t>
   </si>
@@ -97,9 +97,6 @@
     <t>ZVK;Zentraler Venenkatheter</t>
   </si>
   <si>
-    <t>I1</t>
-  </si>
-  <si>
     <t>re. / li.</t>
   </si>
   <si>
@@ -109,198 +106,90 @@
     <t>von ...</t>
   </si>
   <si>
-    <t>I2</t>
-  </si>
-  <si>
     <t>jugulär / subclaviculär</t>
   </si>
   <si>
     <t>jugulär / subclaviculär;subklavikulär</t>
   </si>
   <si>
-    <t>I3</t>
-  </si>
-  <si>
-    <t>korrekte Lage/Fehllage/entfernt</t>
-  </si>
-  <si>
-    <t>korrekte Lage;korrekter Lage/Fehllage/entfernt</t>
-  </si>
-  <si>
     <t>2. ZVK</t>
   </si>
   <si>
     <t>2. ZVK;weiterer ZVK;zweiter ZVK</t>
   </si>
   <si>
-    <t>I4</t>
-  </si>
-  <si>
-    <t>I5</t>
-  </si>
-  <si>
-    <t>I6</t>
-  </si>
-  <si>
     <t>Shaldon-Katheter</t>
   </si>
   <si>
     <t>Shaldon-Katheter; Shaldon; Shaldon Katheter</t>
   </si>
   <si>
-    <t>I7</t>
-  </si>
-  <si>
-    <t>I8</t>
-  </si>
-  <si>
-    <t>I9</t>
-  </si>
-  <si>
     <t>2. Shaldon-Katheter</t>
   </si>
   <si>
     <t>2. Shaldon-Katheter;weiterer Shaldon;weiterer Shaldon Katheter;zweiter Shaldon Katheter;zweiter Shaldon</t>
   </si>
   <si>
-    <t>I10</t>
-  </si>
-  <si>
-    <t>I11</t>
-  </si>
-  <si>
-    <t>I12</t>
-  </si>
-  <si>
     <t>Schleuse</t>
   </si>
   <si>
-    <t>I13</t>
-  </si>
-  <si>
-    <t>I14</t>
-  </si>
-  <si>
     <t>Pleuradrainage</t>
   </si>
   <si>
     <t>Pleuradrainage;Pleura drainage</t>
   </si>
   <si>
-    <t>I15</t>
-  </si>
-  <si>
-    <t>I16</t>
-  </si>
-  <si>
     <t>2. Pleuradrainage</t>
   </si>
   <si>
     <t>2. Pleuradrainage;weitere Pleuradrainage;zweite Pleuradrainage;zweite Pleura drainage</t>
   </si>
   <si>
-    <t>I17</t>
-  </si>
-  <si>
-    <t>I18</t>
-  </si>
-  <si>
     <t>3. Pleuradrainage</t>
   </si>
   <si>
     <t>3. Pleuradrainage;dritte Pleura drainage;dritte Pleuradrainage</t>
   </si>
   <si>
-    <t>I19</t>
-  </si>
-  <si>
-    <t>I20</t>
-  </si>
-  <si>
     <t>Mediastinaldrainage</t>
   </si>
   <si>
     <t>Mediastinaldrainage;Mediastinal drainage</t>
   </si>
   <si>
-    <t>I21</t>
-  </si>
-  <si>
     <t>Perikarddrainage</t>
   </si>
   <si>
-    <t>I22</t>
-  </si>
-  <si>
     <t>Magensonde</t>
   </si>
   <si>
     <t>Magensonde;Magen sonde</t>
   </si>
   <si>
-    <t>I23</t>
-  </si>
-  <si>
     <t>ETT</t>
   </si>
   <si>
     <t>ETT;Tubus;Endotrachealtubus</t>
   </si>
   <si>
-    <t>I24</t>
-  </si>
-  <si>
-    <t>I25</t>
-  </si>
-  <si>
     <t>Zahl</t>
   </si>
   <si>
-    <t>Abstand ... cm</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>I26</t>
-  </si>
-  <si>
-    <t>I27</t>
-  </si>
-  <si>
     <t>brachial / pectoral</t>
   </si>
   <si>
     <t>brachial / pectoral;pektoral</t>
   </si>
   <si>
-    <t>I28</t>
-  </si>
-  <si>
-    <t>korrekte Lage/Fehllage</t>
-  </si>
-  <si>
-    <t>korrekte Lage;korrekter Lage/Fehllage</t>
-  </si>
-  <si>
     <t>Herzschrittmacher</t>
   </si>
   <si>
-    <t>I29</t>
-  </si>
-  <si>
     <t>SM / ICD / Event-Recorder</t>
   </si>
   <si>
     <t>SM / ICD / Event-Recorder;Event-Rekorder;Eventrekorder;Eventrecorder</t>
   </si>
   <si>
-    <t>I30</t>
-  </si>
-  <si>
-    <t>I31</t>
-  </si>
-  <si>
     <t>1 / 2 / 3 / 4</t>
   </si>
   <si>
@@ -310,42 +199,12 @@
     <t>... konnektierte Sondenkabel</t>
   </si>
   <si>
-    <t>I32</t>
-  </si>
-  <si>
-    <t>korrekte Lage/Fehllage/Sondenbruch</t>
-  </si>
-  <si>
-    <t>korrekte Lage;korrekter Lage/Fehllage/Sondenbruch</t>
-  </si>
-  <si>
-    <t>OP-Status</t>
-  </si>
-  <si>
-    <t>OP Status;Status der OP</t>
-  </si>
-  <si>
-    <t>I33</t>
-  </si>
-  <si>
-    <t>Klappen-OP;ACB, ACVB</t>
-  </si>
-  <si>
-    <t>Klappen OP, HK OP;ACB, ACVB</t>
-  </si>
-  <si>
-    <t>mit ...</t>
-  </si>
-  <si>
     <t>Klappen-OP</t>
   </si>
   <si>
     <t>Klappen OP;Klappen-OP;Herzklappen-OP;Herzklappen OP</t>
   </si>
   <si>
-    <t>I34</t>
-  </si>
-  <si>
     <t>TAVI;AKE;AKR;MKE;MKR</t>
   </si>
   <si>
@@ -355,21 +214,9 @@
     <t>Sternalcerclagen</t>
   </si>
   <si>
-    <t>I35</t>
-  </si>
-  <si>
     <t>insgesamt ... Cerclagen</t>
   </si>
   <si>
-    <t>I36</t>
-  </si>
-  <si>
-    <t>intakt / (teils) geborsten</t>
-  </si>
-  <si>
-    <t>intakt / teils geborsten;geborsten</t>
-  </si>
-  <si>
     <t>Indikation geprüft</t>
   </si>
   <si>
@@ -379,48 +226,21 @@
     <t>Fremdmaterial</t>
   </si>
   <si>
-    <t>Nicht vorhanden</t>
-  </si>
-  <si>
     <t>Fremdmaterial nicht vorhanden;kein Fremdmaterial;keine Instrumentierung</t>
   </si>
   <si>
-    <t>Kein Fremdmaterial.</t>
-  </si>
-  <si>
     <t>\n\nFremdmaterial:\n</t>
   </si>
   <si>
     <t>Voraufnahme</t>
   </si>
   <si>
-    <t>Voraufnahme vom [Datum] vorliegend</t>
-  </si>
-  <si>
-    <t>VA vom; Voraufnahme vom</t>
-  </si>
-  <si>
     <t>VA1</t>
   </si>
   <si>
-    <t>VAV1</t>
-  </si>
-  <si>
-    <t>vom … vorliegend</t>
-  </si>
-  <si>
-    <t>VA vom %VAV1% vorliegend. \n</t>
-  </si>
-  <si>
     <t>keine Voraufnahme</t>
   </si>
   <si>
-    <t>keine VA; keine Voraufnahme; ohne Voraufnahme; ohne VA</t>
-  </si>
-  <si>
-    <t>Keine VA. \n</t>
-  </si>
-  <si>
     <t>re. / li. / bds.</t>
   </si>
   <si>
@@ -478,81 +298,18 @@
     <t>Text</t>
   </si>
   <si>
-    <t>ZVK [von %I1% ]%I2%[: %I3%]\n</t>
-  </si>
-  <si>
-    <t>ZVK [von %I4% ]%I5%[: %I6%]\n</t>
-  </si>
-  <si>
-    <t>Shaldon-Katheter [von %I7%] %I8%[: %I9%.]\n</t>
-  </si>
-  <si>
-    <t>Shaldon-Katheter [von %I10%] %I11%[: %I12%.]\n</t>
-  </si>
-  <si>
-    <t>Schleuse [von %I13%] jugulär[: %I14%.]\n</t>
-  </si>
-  <si>
-    <t>Pleuradrainage [von %I15%][: %I16%.]\n</t>
-  </si>
-  <si>
-    <t>Pleuradrainage [von %I17%][: %I18%.]\n</t>
-  </si>
-  <si>
-    <t>Pleuradrainage [von %I19%][: %I20%.]\n</t>
-  </si>
-  <si>
-    <t>Mediastinaldrainage %I21%\n</t>
-  </si>
-  <si>
-    <t>Perikarddrainage %I22%\n</t>
-  </si>
-  <si>
-    <t>Magensonde[: %I23%.]\n</t>
-  </si>
-  <si>
-    <t>ETT[: %I24%,] [%I25% cm suprakarinal endend.]\n</t>
-  </si>
-  <si>
-    <t>Port-System [von %I26% ][%I27%][: %I28% der Katheterspitze.]\n</t>
-  </si>
-  <si>
-    <t>[%I29%-]Aggregat [%I30% pektoral,] [%I31% konnektierte(s) Sondenkabel,] [%I32% im Summationsbild. ]\n</t>
-  </si>
-  <si>
-    <t>Postoperativer Status [nach %I33%. ]\n</t>
-  </si>
-  <si>
-    <t>%I34% erfolgt. \n</t>
-  </si>
-  <si>
-    <t>[%I35% ]Sternalcerclagen[, %I36%.]\n</t>
-  </si>
-  <si>
     <t>Beurteilung</t>
   </si>
   <si>
     <t>gering,mäßig,deutlich</t>
   </si>
   <si>
-    <t xml:space="preserve">Kein Pleuraerguss. </t>
-  </si>
-  <si>
     <t>gering</t>
   </si>
   <si>
-    <t>PE1</t>
-  </si>
-  <si>
     <t>re./li./bds.</t>
   </si>
   <si>
-    <t>[%PE2% zur VU ]geringer Pleuraerguss %PE1%</t>
-  </si>
-  <si>
-    <t>PE2</t>
-  </si>
-  <si>
     <t>Neu / Idem / Progred. / Regred.</t>
   </si>
   <si>
@@ -562,27 +319,9 @@
     <t>mäßig</t>
   </si>
   <si>
-    <t>PE3</t>
-  </si>
-  <si>
-    <t>[%PE4% zur VU ]mäßiger Pleuraerguss %PE3%</t>
-  </si>
-  <si>
-    <t>PE4</t>
-  </si>
-  <si>
     <t>deutlich</t>
   </si>
   <si>
-    <t>PE5</t>
-  </si>
-  <si>
-    <t>[%PE6% zur VU ]deutlicher Pleuraerguss %PE5%</t>
-  </si>
-  <si>
-    <t>PE6</t>
-  </si>
-  <si>
     <t>kein Pleuraerguss</t>
   </si>
   <si>
@@ -610,15 +349,9 @@
     <t>PG0</t>
   </si>
   <si>
-    <t xml:space="preserve">Kein Pneumothorax. </t>
-  </si>
-  <si>
     <t>rechts/links/beidseitig;bds</t>
   </si>
   <si>
-    <t>Pneumothorax %P1% %P2% [mit %P3% mm pleuraler Dehiszenz.]</t>
-  </si>
-  <si>
     <t>apikal / lateral / basal / ventral / mantelförmig</t>
   </si>
   <si>
@@ -631,9 +364,6 @@
     <t>Seropneumothorax</t>
   </si>
   <si>
-    <t>Seropneumothorax %P4% [mit %P5% mm pleuraler Dehiszenz.] [Mediastinalshift: %P6%]</t>
-  </si>
-  <si>
     <t>gering / mäßig / deutlich</t>
   </si>
   <si>
@@ -649,9 +379,6 @@
     <t>Spannungspneumothorax;Spannungs Pneumothorax</t>
   </si>
   <si>
-    <t>Spannungspneumothorax %P7% [mit %P8% mm pleuraler Dehiszenz.] [Mediastinalshift: %P9%]</t>
-  </si>
-  <si>
     <t>P9</t>
   </si>
   <si>
@@ -733,9 +460,6 @@
     <t>streifenförmige;streifenförmig/flächige;flächig</t>
   </si>
   <si>
-    <t>Minderbelüftungen [im %Pu3%.,] %Pu2%</t>
-  </si>
-  <si>
     <t>Pu2</t>
   </si>
   <si>
@@ -754,9 +478,6 @@
     <t>Pu4</t>
   </si>
   <si>
-    <t xml:space="preserve">Atelektase [des %Pu5%] %Pu4%. </t>
-  </si>
-  <si>
     <t>Pu5</t>
   </si>
   <si>
@@ -772,18 +493,12 @@
     <t>PuG0</t>
   </si>
   <si>
-    <t xml:space="preserve">Kein Anhalt für entzündliche Konsolidierungen. </t>
-  </si>
-  <si>
     <t>Pneumonie</t>
   </si>
   <si>
     <t>Pn1</t>
   </si>
   <si>
-    <t>Verdichtungen  [im %Pn2%] %Pn1%, [%Pn3% pulmonale Infiltrate(n).]</t>
-  </si>
-  <si>
     <t>Pn2</t>
   </si>
   <si>
@@ -814,18 +529,12 @@
     <t>PuG1</t>
   </si>
   <si>
-    <t>Kein suspekter Rundherd pulmonal.</t>
-  </si>
-  <si>
     <t>Pn4</t>
   </si>
   <si>
     <t>Lage im ...</t>
   </si>
   <si>
-    <t xml:space="preserve">Malignitätssuspekter Rundherd im %Pn4%. </t>
-  </si>
-  <si>
     <t>Pn5</t>
   </si>
   <si>
@@ -853,9 +562,6 @@
     <t>Im ... Anteil</t>
   </si>
   <si>
-    <t xml:space="preserve">Mediastinum [im %M2% Anteil] verbreitert. </t>
-  </si>
-  <si>
     <t>Herz normal</t>
   </si>
   <si>
@@ -865,9 +571,6 @@
     <t>Herz verbreitert</t>
   </si>
   <si>
-    <t xml:space="preserve">Herzsilhouette verbreitert. </t>
-  </si>
-  <si>
     <t>Herz aortal verbreitert;Herz verbreitert aortal</t>
   </si>
   <si>
@@ -967,15 +670,6 @@
     <t>Zwerchfell bds. orthotop, glatt begrenzt, Randwinkel entfaltet. \n</t>
   </si>
   <si>
-    <t>Zwerchfell %PE1% orthotop, glatt begrenzt, dabei der Randwinkel verplumpt[, %PE2%].\n</t>
-  </si>
-  <si>
-    <t>Zwerchfell %PE3% orthotop, unscharf bei flächiger Transparenzminderung des Unterfelds[, %PE4%].\n</t>
-  </si>
-  <si>
-    <t>Zwerchfell %PE5% orthotop, unscharf, bei flächiger Transparenzminderung des Unter- und Mittelfelds[, %PE6%].\n</t>
-  </si>
-  <si>
     <t xml:space="preserve">\n\nHerz-Mediastinalsillhouette:\n </t>
   </si>
   <si>
@@ -986,6 +680,405 @@
   </si>
   <si>
     <t>Mediastinum verlagert, Mediastinum verbreitert</t>
+  </si>
+  <si>
+    <t>Keines\n</t>
+  </si>
+  <si>
+    <t>Kein Pleuraerguss. \n</t>
+  </si>
+  <si>
+    <t>[%PE2% zur VU ]geringer Pleuraerguss %PE1% \n</t>
+  </si>
+  <si>
+    <t>[%PE4% zur VU ]mäßiger Pleuraerguss %PE3% \n</t>
+  </si>
+  <si>
+    <t>[%PE6% zur VU ]deutlicher Pleuraerguss %PE5% \n</t>
+  </si>
+  <si>
+    <t>Kein Pneumothorax. \n</t>
+  </si>
+  <si>
+    <t>Pneumothorax %P1% %P2% [mit %P3% mm pleuraler Dehiszenz.]\n</t>
+  </si>
+  <si>
+    <t>Seropneumothorax %P4% [mit %P5% mm pleuraler Dehiszenz.] [Mediastinalshift: %P6%]\n</t>
+  </si>
+  <si>
+    <t>Spannungspneumothorax %P7% [mit %P8% mm pleuraler Dehiszenz.] [Mediastinalshift: %P9%]\n</t>
+  </si>
+  <si>
+    <t>Minderbelüftungen [im %Pu3%.,] %Pu2%\n</t>
+  </si>
+  <si>
+    <t>Atelektase [des %Pu5%] %Pu4%. \n</t>
+  </si>
+  <si>
+    <t>Kein Anhalt für entzündliche Konsolidierungen. \n</t>
+  </si>
+  <si>
+    <t>Verdichtungen  [im %Pn2%] %Pn1%, [%Pn3% pulmonale Infiltrate(n).]\n</t>
+  </si>
+  <si>
+    <t>Kein suspekter Rundherd pulmonal.\n</t>
+  </si>
+  <si>
+    <t>Malignitätssuspekter Rundherd im %Pn4%. \n</t>
+  </si>
+  <si>
+    <t>Mediastinum [im %M2% Anteil] verbreitert. \n</t>
+  </si>
+  <si>
+    <t>Herzsilhouette verbreitert. \n</t>
+  </si>
+  <si>
+    <t>Keine Voraufnahme. \n</t>
+  </si>
+  <si>
+    <t>Voraufnahme: [Datum]</t>
+  </si>
+  <si>
+    <t>Mehrere Voraufnahmen</t>
+  </si>
+  <si>
+    <t>keine Voraufnahme; ohne Voraufnahme; ohne VA; keine VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vom … </t>
+  </si>
+  <si>
+    <t>zuletzt vom …</t>
+  </si>
+  <si>
+    <t>Kein Fremdmaterial</t>
+  </si>
+  <si>
+    <t>regelrechte Projektion/V.a. Fehllage/entfernt</t>
+  </si>
+  <si>
+    <t>regelrechte Projektion/V.a. Fehllage</t>
+  </si>
+  <si>
+    <t>regelrechte Projektion/V.a. Fehllage/Sondenbruch</t>
+  </si>
+  <si>
+    <t>regelrechte Projektion/V a Fehllage;Va Fehllage;V.a. Fehllage/entfernt</t>
+  </si>
+  <si>
+    <t>regelrechte Projektion/V a Fehllage;Va Fehllage;V.a. Fehllage</t>
+  </si>
+  <si>
+    <t>regelrechte Projektion;/V a Fehllage;Va Fehllage;V.a. Fehllage/Sondenbruch</t>
+  </si>
+  <si>
+    <t>Projektion auf …</t>
+  </si>
+  <si>
+    <t>Projektion auf ...</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>Z4</t>
+  </si>
+  <si>
+    <t>ZVK [von %Z1% ]%Z2%[, Projektion auf: %Z4%][ %Z3%]\n</t>
+  </si>
+  <si>
+    <t>ZZ1</t>
+  </si>
+  <si>
+    <t>ZZ2</t>
+  </si>
+  <si>
+    <t>ZZ3</t>
+  </si>
+  <si>
+    <t>ZZ4</t>
+  </si>
+  <si>
+    <t>VAD</t>
+  </si>
+  <si>
+    <t>MVAD</t>
+  </si>
+  <si>
+    <t>Voraufnahme: %VAD%. \n</t>
+  </si>
+  <si>
+    <t>Mehrere Voraufnahmen, zuletzt vom %MVAD%</t>
+  </si>
+  <si>
+    <t>ZVK [von %ZZ1% ]%ZZ2%[, Projektion auf: %ZZ4%][ %ZZ3%]\n</t>
+  </si>
+  <si>
+    <t>SK1</t>
+  </si>
+  <si>
+    <t>SK2</t>
+  </si>
+  <si>
+    <t>SK3</t>
+  </si>
+  <si>
+    <t>SK4</t>
+  </si>
+  <si>
+    <t>Shaldon-Katheter [von %SK1%] %SK2%[, Projektion auf: %SK4%][ %SK3%.]\n</t>
+  </si>
+  <si>
+    <t>SKK1</t>
+  </si>
+  <si>
+    <t>SKK2</t>
+  </si>
+  <si>
+    <t>SKK3</t>
+  </si>
+  <si>
+    <t>SKK4</t>
+  </si>
+  <si>
+    <t>Shaldon-Katheter [von %SKK1%] %SKK2%[, Projektion auf: %SKK4%][ %SKK3%.]\n</t>
+  </si>
+  <si>
+    <t>Sc1</t>
+  </si>
+  <si>
+    <t>Sc2</t>
+  </si>
+  <si>
+    <t>Sc3</t>
+  </si>
+  <si>
+    <t>Schleuse [von %Sc1%] jugulär[, Projektion auf: %Sc3%][ %Sc2%.]\n</t>
+  </si>
+  <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>PD3</t>
+  </si>
+  <si>
+    <t>PDD1</t>
+  </si>
+  <si>
+    <t>PDD2</t>
+  </si>
+  <si>
+    <t>PDD3</t>
+  </si>
+  <si>
+    <t>PDDD1</t>
+  </si>
+  <si>
+    <t>PDDD2</t>
+  </si>
+  <si>
+    <t>PDDD3</t>
+  </si>
+  <si>
+    <t>MD1</t>
+  </si>
+  <si>
+    <t>MD2</t>
+  </si>
+  <si>
+    <t>PeD1</t>
+  </si>
+  <si>
+    <t>PeD2</t>
+  </si>
+  <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>MS2</t>
+  </si>
+  <si>
+    <t>ETT1</t>
+  </si>
+  <si>
+    <t>ETT2</t>
+  </si>
+  <si>
+    <t>HSM1</t>
+  </si>
+  <si>
+    <t>HSM2</t>
+  </si>
+  <si>
+    <t>HSM3</t>
+  </si>
+  <si>
+    <t>HSM4</t>
+  </si>
+  <si>
+    <t>HSM5</t>
+  </si>
+  <si>
+    <t>KOP1</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>SC2</t>
+  </si>
+  <si>
+    <t>Pleuradrainage [von %PDD1%][, Projektion auf: %PDD3%][ %PDD2%.]\n</t>
+  </si>
+  <si>
+    <t>Pleuradrainage [von %PD1%][, Projektion auf: %PD3%][ %PD2%.]\n</t>
+  </si>
+  <si>
+    <t>Pleuradrainage [von %PDDD1%][, Projektion auf: %PDDD3%][ %PDDD2%.]\n</t>
+  </si>
+  <si>
+    <t>Projektion … cm oberhalb der Carina</t>
+  </si>
+  <si>
+    <t>Mediastinaldrainage[, Projektion auf: %MD2%] %MD1%\n</t>
+  </si>
+  <si>
+    <t>Perikarddrainage[, Projektion auf: %PeD2%] %PeD1%\n</t>
+  </si>
+  <si>
+    <t>Magensonde[, Projektion auf: %MS2%][ %MS1%.]\n</t>
+  </si>
+  <si>
+    <t>ETT[ Projektion %ETT2% cm oberhalb der Carina][ %ETT1%]\n</t>
+  </si>
+  <si>
+    <t>[%HSM1%-]Aggregat [%HSM2% pektoral,] [%HSM3% konnektierte(s) Sondenkabel,][, Projektion auf: %HSM5%][ %HSM4% im Summationsbild. ]\n</t>
+  </si>
+  <si>
+    <t>%KOP1% erfolgt. \n</t>
+  </si>
+  <si>
+    <t>[%SC1% ]Sternalcerclagen[, %SC2%.]\n</t>
+  </si>
+  <si>
+    <t>intakt / (teils) gebrochen</t>
+  </si>
+  <si>
+    <t>intakt / teils gebrochen;gebrochen</t>
+  </si>
+  <si>
+    <t>Portkathetersystem</t>
+  </si>
+  <si>
+    <t>Port;Portkathetersystem</t>
+  </si>
+  <si>
+    <t>PKS1</t>
+  </si>
+  <si>
+    <t>PKS2</t>
+  </si>
+  <si>
+    <t>PKS3</t>
+  </si>
+  <si>
+    <t>PKS4</t>
+  </si>
+  <si>
+    <t>Port-System [von %PKS1% ][%PKS2%][, Projektion auf %PKS4%][ %PKS3% der Katheterspitze.]\n</t>
+  </si>
+  <si>
+    <t>Projketion auf …</t>
+  </si>
+  <si>
+    <t>PEg1</t>
+  </si>
+  <si>
+    <t>PEg2</t>
+  </si>
+  <si>
+    <t>PEm1</t>
+  </si>
+  <si>
+    <t>PEm2</t>
+  </si>
+  <si>
+    <t>PEd1</t>
+  </si>
+  <si>
+    <t>PEd2</t>
+  </si>
+  <si>
+    <t>Zwerchfell %PEg1% orthotop, glatt begrenzt, dabei der Randwinkel verplumpt[, %PEg2%].\n</t>
+  </si>
+  <si>
+    <t>Zwerchfell %PEm1% orthotop, unscharf bei flächiger Transparenzminderung des Unterfelds[, %PEm2%].\n</t>
+  </si>
+  <si>
+    <t>Zwerchfell %PEd1% orthotop, unscharf, bei flächiger Transparenzminderung des Unter- und Mittelfelds[, %PEd2%].\n</t>
+  </si>
+  <si>
+    <t>Epikardiale Schrittmacherkabel</t>
+  </si>
+  <si>
+    <t>ESK1</t>
+  </si>
+  <si>
+    <t>ESK2</t>
+  </si>
+  <si>
+    <t>Epikardiale Schrittmacherkabel[, Projketion auf: %ESK2%][ %ESK1] \n</t>
+  </si>
+  <si>
+    <t>Tracheostoma</t>
+  </si>
+  <si>
+    <t>TO1</t>
+  </si>
+  <si>
+    <t>TO2</t>
+  </si>
+  <si>
+    <t>Tracheostoma[, Projektion auf %TO2%][ %TO1%]\n</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PAK;Pulmonalarterienkatheter</t>
+  </si>
+  <si>
+    <t>PAK1</t>
+  </si>
+  <si>
+    <t>PAK2</t>
+  </si>
+  <si>
+    <t>PAK[ Projektion auf: %PAK2%][ %PAK1%]\n</t>
+  </si>
+  <si>
+    <t>LVAD</t>
+  </si>
+  <si>
+    <t>LVAD;linksventrikuläres Herzunterstützungssystem</t>
+  </si>
+  <si>
+    <t>LVAD1</t>
+  </si>
+  <si>
+    <t>LVAD2</t>
+  </si>
+  <si>
+    <t>LVAD[ Projektion auf: %LVAD2%][ %LVAD1%]\n</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1154,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1077,7 +1170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1373,35 +1466,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD863459-8DC2-4F08-8B8A-0734853F8245}">
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="35.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.453125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.7265625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="40.7265625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="30.1796875" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1439,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -1451,23 +1544,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1477,28 +1570,28 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>15</v>
@@ -1506,48 +1599,58 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="O4" s="1" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1557,26 +1660,18 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1587,67 +1682,73 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1658,52 +1759,44 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1714,76 +1807,76 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1794,20 +1887,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>254</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1818,27 +1911,27 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1846,24 +1939,24 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1874,20 +1967,20 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1898,108 +1991,100 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>267</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2010,108 +2095,100 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>268</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>271</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2122,27 +2199,25 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2150,89 +2225,79 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>275</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="O27" s="1" t="s">
-        <v>155</v>
+        <v>301</v>
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>277</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="N29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2240,22 +2305,24 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="1"/>
+        <v>278</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="O30" s="1" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2266,76 +2333,74 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L31" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="M31" s="1"/>
-      <c r="N31" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2346,165 +2411,157 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="N35" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="C36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O36" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M37" s="1"/>
+        <v>285</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
       <c r="N37" s="1" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>91</v>
+        <v>286</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M38" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M38" s="3"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M39" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
       <c r="N39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2512,79 +2569,75 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>162</v>
+        <v>306</v>
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2593,199 +2646,185 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1" t="s">
-        <v>314</v>
-      </c>
+      <c r="N43" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>131</v>
-      </c>
+    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M44" s="3"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>168</v>
+        <v>291</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M46" s="1"/>
+        <v>335</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M46" s="3"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="O46" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>175</v>
+        <v>336</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>172</v>
+        <v>315</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>169</v>
+        <v>316</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2796,23 +2835,21 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>172</v>
+        <v>317</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2821,793 +2858,829 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="3"/>
+      <c r="J51" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="N51" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="P52" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-    </row>
-    <row r="55" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-    </row>
-    <row r="56" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="P56" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-    </row>
-    <row r="59" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="P59" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1" t="s">
-        <v>207</v>
+        <v>347</v>
       </c>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>206</v>
-      </c>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L64" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-    </row>
-    <row r="65" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C66" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="P66" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="P68" s="1"/>
-    </row>
-    <row r="69" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>210</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E69" s="6" t="s">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="P69" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C70" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="P70" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="C73" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1" t="s">
+      <c r="F73" s="6"/>
+      <c r="G73" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="P73" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1" t="s">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="P77" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>257</v>
-      </c>
+    <row r="78" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="6" t="s">
-        <v>258</v>
-      </c>
+      <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
+      <c r="J79" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="P79" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="N79" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6" t="s">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6" t="s">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L80" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M80" s="6"/>
-      <c r="N80" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="N80" s="6"/>
       <c r="O80" s="6" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -3616,21 +3689,22 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6" t="s">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B82" s="1"/>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -3639,210 +3713,212 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6" t="s">
-        <v>265</v>
+        <v>114</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L82" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="M82" s="6"/>
       <c r="N82" s="6" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
       <c r="O83" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="6" t="s">
-        <v>267</v>
+        <v>136</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
-      <c r="I84" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="P84" s="6"/>
-    </row>
-    <row r="85" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="C85" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>140</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
-      <c r="I85" s="6" t="s">
-        <v>267</v>
-      </c>
+      <c r="I85" s="6"/>
       <c r="J85" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="M85" s="6"/>
-      <c r="N85" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="O85" s="6" t="s">
-        <v>297</v>
-      </c>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
       <c r="P85" s="6"/>
     </row>
-    <row r="86" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="C86" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>141</v>
-      </c>
+    <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
-      <c r="I86" s="6" t="s">
-        <v>267</v>
-      </c>
+      <c r="I86" s="6"/>
       <c r="J86" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K86" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="K86" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="L86" s="6" t="s">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="M86" s="6"/>
-      <c r="N86" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="O86" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="P86" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C87" s="6" t="s">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="6" t="s">
-        <v>274</v>
-      </c>
+      <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
+      <c r="J87" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
       <c r="O87" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="P87" s="6"/>
-    </row>
-    <row r="88" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="C88" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>275</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="6" t="s">
-        <v>274</v>
-      </c>
+      <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
+      <c r="J88" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
-      <c r="O88" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="P88" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="C89" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="P89" s="6"/>
-    </row>
-    <row r="90" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="6" t="s">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E90" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
@@ -3852,102 +3928,639 @@
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
       <c r="O90" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="P90" s="6"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C91" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L91" s="1"/>
-      <c r="O91" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L92" s="1"/>
-      <c r="N92" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="C101" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="K101" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P105" s="6"/>
+    </row>
+    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C106" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="P106" s="6"/>
+    </row>
+    <row r="107" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C107" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="O107" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="P107" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C108" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="P108" s="6"/>
+    </row>
+    <row r="109" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C109" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="P109" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C110" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P110" s="6"/>
+    </row>
+    <row r="111" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C111" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="P111" s="6"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L112" s="1"/>
+      <c r="O112" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L113" s="1"/>
+      <c r="N113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K114" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L93" s="1"/>
-      <c r="N93" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C94" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="L95" s="1"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="L96" s="1"/>
-    </row>
-    <row r="97" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="L97" s="1"/>
-      <c r="O97" s="1"/>
-    </row>
-    <row r="103" spans="12:15" x14ac:dyDescent="0.35">
-      <c r="O103" s="1"/>
-    </row>
-    <row r="114" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="N114" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L118" s="1"/>
+      <c r="O118" s="1"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O124" s="1"/>
+    </row>
+    <row r="135" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N135" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3957,18 +4570,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4118,14 +4731,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368DB8FB-3FF0-4C81-B088-BE74BE0C63EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC27FD34-7D59-4F13-870A-01667C34E6ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4137,6 +4742,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="ac726c7a-29b1-4eed-9efa-e398fb837db4"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368DB8FB-3FF0-4C81-B088-BE74BE0C63EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
